--- a/doc/task/plan.xlsx
+++ b/doc/task/plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hai.ma\works\github\ExamEngine\doc\task\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="20295" windowHeight="7935"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>需求简要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +101,10 @@
   </si>
   <si>
     <t>Author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -231,7 +233,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -273,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,7 +522,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,6 +574,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">

--- a/doc/task/plan.xlsx
+++ b/doc/task/plan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hai.ma\works\github\ExamEngine\doc\task\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="20295" windowHeight="7935"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>需求简要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,11 +49,6 @@
   </si>
   <si>
     <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师需要看到所有
-未完成的流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,15 +96,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jean</t>
+    <t>1.表单描述:配置表单的描述信息.描述信息保存到答案表中(需新增字段)
+           加载表单时需要把描述信息单上,如果有描述信息需要展示,否则不展示
+2.清洗答案数据:保存答案时,对null或者是empty所对应的属性要删除掉
+3.service: 获取表单列表,数据格式如下:
+   [{
+    TemplateName:"forms/test.html"
+    ,TemplateData:{}
+    ,TemplateDesc:""
+   }]
+   保存答案,提交的数据格式如下:
+   {
+    TemplateName:"forms/test.html"
+    ,TemplateData:{}
+    ,TemplateDesc:""
+   }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看流程进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色:老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色:学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Service:获得当前流程的详情(已经有了).需要增加一个字段,返回当前流程所在进度,以图的方式表示
+          返回的图还是BASE64的形式
+2.页面:需要增加一个按钮,【查看当前进度】弹出一个层,展示当前流程的进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Service:获得所有的流程(已经有了),需要增加一个字段,返回流程图
+   流程图以BASE64的形式返回即可
+2.页面:新增页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师需要看到所有
+未完成的流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,9 +254,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -233,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -275,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,22 +559,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -548,19 +587,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -573,104 +606,117 @@
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -678,7 +724,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -686,7 +732,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -694,7 +740,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -702,7 +748,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -710,7 +756,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -718,7 +764,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>

--- a/doc/task/plan.xlsx
+++ b/doc/task/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hai.ma\works\github\ExamEngine\doc\task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\ExamEngine\doc\task\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,22 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -224,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +270,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,23 +673,23 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
     </row>

--- a/doc/task/plan.xlsx
+++ b/doc/task/plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\ExamEngine\doc\task\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="20295" windowHeight="7935"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>需求简要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +143,19 @@
   <si>
     <t>教师需要看到所有
 未完成的流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于同一个表单，可能出现在多个流程使用的情况，老师需要根据不同的流程，配置不一样的答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要在配置标准答案的时候，增加一个选择流程的功能，用来和配置的答案对应。
+其他需要调整的地方：打分的时候，需要根据流程名，来获取标准答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准答案配置调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +312,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -346,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,9 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -747,13 +753,24 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>

--- a/doc/task/plan.xlsx
+++ b/doc/task/plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>需求简要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,19 +143,6 @@
   <si>
     <t>教师需要看到所有
 未完成的流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于同一个表单，可能出现在多个流程使用的情况，老师需要根据不同的流程，配置不一样的答案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们需要在配置标准答案的时候，增加一个选择流程的功能，用来和配置的答案对应。
-其他需要调整的地方：打分的时候，需要根据流程名，来获取标准答案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准答案配置调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -753,24 +742,14 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
